--- a/Output_testing/R1_201907/Country/HKD/MN/ANGOLA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/ANGOLA_201907_HKD_MN.xlsx
@@ -624,8 +624,10 @@
       <c r="G9" s="8" t="n">
         <v>176.60255</v>
       </c>
-      <c r="H9" s="9" t="n">
-        <v>8901.136605551914</v>
+      <c r="H9" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
       <c r="I9" s="9" t="n">
         <v>-79.67122437384775</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/ANGOLA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/ANGOLA_201907_HKD_MN.xlsx
@@ -812,136 +812,451 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>74.437746</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>41.44310923948818</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>129.149541</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>62.52927653887978</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>136.575567</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>55.56553839249693</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>85.40827400000001</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>56.20241152503189</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>93.64922897322184</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>33.775553</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>18.80449110593868</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>21.839103</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>10.57365980764948</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>46.156684</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>18.7787688032981</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>40.107829</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>26.39272057919831</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>76.29541396566462</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>13.605695</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>7.574951344767452</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>2.279434</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>1.10361490900014</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>14.426069</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>5.869221768431756</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>5.807347</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>3.821490479513254</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>834.6187395390755</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>0.819</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0.455977085431104</v>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0.2055906010169838</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>1.190124</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0.4841999360971499</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>2.660324</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>1.750610534969</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>184.2226495726495</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>5.119535</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>2.850293831578177</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>0.8335360000000001</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.4035663049635747</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>1.193296</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0.4854904589311573</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>2.152951</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>1.41673672149409</v>
+      </c>
+      <c r="K22" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>7.20126</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>4.009291265240039</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>8.336114</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>4.036028107646369</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>6.88877</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.80268442094098</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>2.045688</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.346152936281319</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-50.52412280595677</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>10.08382</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>5.614152446412546</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>11.358492</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>5.499348134211748</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>10.400467</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>4.231412404741453</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>1.800365</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>1.184719581445517</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-30.98495930471476</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.2768727381149503</v>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.1504314976002326</v>
+      </c>
+      <c r="G25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.1482209414474737</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>1.630821</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.073152151109669</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>984.5027431421446</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>1.349233</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.7511835542215686</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>0.939048</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.4546511866835204</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>1.050993</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.4275947241115647</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>1.087656</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.7157256229024145</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>41.32817738137933</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>2.194944</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1.222031950921232</v>
+      </c>
+      <c r="E27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F27" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G27" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.08174884428838719</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>1.061684</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.6986349013157901</v>
+      </c>
+      <c r="K27" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>30.5302</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>16.99764543788607</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>30.988624</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>15.00350852702889</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>27.344637</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>11.12511930521505</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>8.202558</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>5.397644966738733</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-36.68847685940634</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -973,136 +1288,545 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>7.19226</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>94.28598059315432</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>8.302878</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>79.98581562743307</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>6.781078</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>87.21389098993508</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>2.045688</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>91.38998291649094</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-49.20102328616701</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, NOT KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>2.238162339329951</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>4.390171204721804</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>2.809680026062261</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>5.072470890129448</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>1.355959437263454</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>843</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>MEN'S OR BOYS' COATS, CAPES, JACKETS, SUITS, BLAZERS, TROUSERS, SHORTS, SHIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>2.06953654321444</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>1.568633231083313</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>1.511107006907966</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>1.7801427437974</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-51.25808858607235</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>0.5134677122173932</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>0.4093661558404376</v>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>0.3512309029691352</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>1.555921687479003</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>56.21439784705091</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>0.4066132564809764</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>0.1440401647791741</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>0.06533571302805694</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>0.2014817621032016</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-11.22047244094489</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>0.590445</v>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>7.593926196624228</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>642</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>PAPER AND PAPERBOARD, CUT TO SIZE OR SHAPE, AND ARTICLES OF PAPER OR PAPERBOARD</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>0.3485428785551856</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>846</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>CLOTHING ACCESSORIES, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED (OTHER THAN THOSE FOR BABIES)</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0.1195705423594476</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.2268112386009145</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.1062862859180832</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>PETROLEUM OILS AND OILS OBTAINED FROM BITUMINOUS MINERALS; PREPARATIONS, N.E.S., CONTAINING BY WEIGHT 70% OR MORE OF PETROLEUM OILS OR OF OILS FROM BITUMINOUS MINERALS</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>1.230132</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>11.85048260969335</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>848</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL AND CLOTHING ACCESSORIES OF OTHER THAN TEXTILE FABRICS; HEADGEAR OF ALL MATERIALS</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>1.234822653918842</v>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>0.3666690132434764</v>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>0.189857113929104</v>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1134,136 +1858,451 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>74.437746</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>43.28124293911191</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>129.149541</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>65.83817948747463</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>136.575567</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>57.38068332511913</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>85.40827400000001</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>57.0426361280629</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>93.64922897322184</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>33.775553</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>19.63853009192205</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>21.839103</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>11.13319313430193</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>46.156684</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>19.39220994002238</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>40.107829</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>26.78729107127922</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>76.29541396566462</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>13.605695</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>7.910924528134696</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>2.279434</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>1.162015626690089</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>14.426069</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>6.060950103288373</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>5.807347</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>3.87862166363879</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>834.6187395390755</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>0.819</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>0.4762011193505598</v>
+      </c>
+      <c r="E47" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.2164699743851612</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>1.190124</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>0.50001716896862</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>2.660324</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>1.776782117324521</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>184.2226495726495</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>5.119535</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>2.976713428027312</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>0.8335360000000001</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0.424922089171588</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>1.193296</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>0.5013498489750465</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>2.152951</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.437916898947626</v>
+      </c>
+      <c r="K48" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>10.08382</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>5.863157962551358</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>11.358492</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>5.790360764836514</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>10.400467</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>4.369638848801937</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>1.800365</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.202431108638256</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-30.98495930471476</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.2891529246109786</v>
+      </c>
+      <c r="E50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.1583919803296537</v>
+      </c>
+      <c r="G50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>0.1530628362362265</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>1.630821</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>1.089195748095831</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>984.5027431421446</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>1.349233</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.7845009339007496</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>0.939048</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.4787102632548581</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>1.050993</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.4415628493046412</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>1.087656</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.7264257025086864</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>41.32817738137933</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>2.194944</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1.276232954471056</v>
+      </c>
+      <c r="E52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F52" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G52" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.08441931243736178</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>1.061684</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.7090794750750534</v>
+      </c>
+      <c r="K52" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>1.359043</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.7902048813742892</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>0.699454</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.3565694282663543</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>0.786541</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.3304563256414855</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>0.714742</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.4773632099326106</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>160.5817993561489</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>28.744284</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>16.71313823654504</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>28.244846</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>14.39872899388841</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>25.671639</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>10.78564944120479</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>7.295088</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>4.87225687649651</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-38.91773410720575</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1295,136 +2334,553 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>6.776922</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>42.67109388296501</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>1419.927797</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>99.32765844306347</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>281.944743</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>97.01898241806734</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>170.736391</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>96.67832712494808</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-33.70774288885585</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>035</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>FISH, DRIED, SALTED OR IN BRINE; SMOKED FISH; FLOURS, MEALS AND PELLETS OF FISH, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>1.068774</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>6.729567743832973</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>4.319781</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>0.3021799648005871</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>1.02952</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>0.3542643913706477</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>2.72468</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>1.542831629554613</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>211.0649374372089</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>2.131277</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>13.4196499469234</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>3.142546</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>0.2198293014539917</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>7.506727</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>2.583112588235885</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>1.583898</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>0.8968715344144238</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-20.99325456425522</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>NON-FERROUS BASE METAL WASTE AND SCRAP, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>1.516487</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>0.8587005114025816</v>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE ANIMAL MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>2.416054187434984</v>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>0.1071102748479498</v>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-87.18680621630193</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>723</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>CIVIL ENGINEERING AND CONTRACTORS' PLANT AND EQUIPMENT</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>29.34183062673835</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>1.731896</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.1211506491459353</v>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>HIDES AND SKINS (EXCEPT FURSKINS), RAW</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>0.844067</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>5.314693337257332</v>
+      </c>
+      <c r="E67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F67" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
